--- a/Casos Cartera/Pagarés a Judicial.xlsx
+++ b/Casos Cartera/Pagarés a Judicial.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Resultado esperado</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Procesos Financieros, sub-modulo cambio de prenda, ingresar numero de operación que cumple con las condiciones para realizar cambio, ingresar Patente, Estado, Año, Vehículo, Serie, Modelo, la fecha de la solicitud y comentario, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Cambio de prenda y dejar en prenda el vehículo ingresado de manera exitosa</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -219,7 +213,43 @@
     <t>Envio por correo de nominas a judicial en estado eniviada, completa y eliminada</t>
   </si>
   <si>
-    <t>Validar proceso de recepcion pagare</t>
+    <t>Validar proceso de recepcion pagare, seleccionando todos los registros asociados a la nomina</t>
+  </si>
+  <si>
+    <t>Validar proceso de recepcion pagare, excluyendo pagares de la nomina</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PagaresJudicialRP_RecepcionarError</t>
+  </si>
+  <si>
+    <t>Validar proceso de recepcion pagare, sin seleccionar registros asociados a la nomina</t>
+  </si>
+  <si>
+    <t>Validar consulta de nomina judicial, considerando nominas en estado completa y enviada</t>
+  </si>
+  <si>
+    <t>Emisión de carta guía de manera exitosa</t>
+  </si>
+  <si>
+    <t>Emisión de carta guía de manera exitosa, se debe visualizar la cantidad de pagarés trabajados, ejemplo 3/8</t>
+  </si>
+  <si>
+    <t>Sistema debe emitir mensaje incando debe seleccionar pagarés</t>
+  </si>
+  <si>
+    <t>Visualización de trazabilidad y carta guía de manera exitosa</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Pagarés a Judicial, sub-modulo Recepción de Pagarés, hacer clic en boton recepcionar nomina pagaré, seleccionar ubicación global tesoreria del combo ubicación pagarés, ubicación física global, motivo de traslado tesorería, hacer clic en boton generar carta guía</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Pagarés a Judicial, sub-modulo Recepción de Pagarés, hacer clic en boton recepcionar nomina pagaré, seleccionar ubicación global tesoreria del combo ubicación pagarés, ubicación física global, motivo de traslado tesorería, descartar algunos pagarés, hacer clic en boton generar carta guía</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Pagarés a Judicial, sub-modulo Recepción de Pagarés, hacer clic en boton recepcionar nomina pagaré, seleccionar ubicación global tesoreria del combo ubicación pagarés, ubicación física global, motivo de traslado tesorería, seleccionar todos los pagarés, hacer clic en boton generar carta guía</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Pagarés a Judicial, sub-modulo Recepción de Pagarés, seleccionar nomina en estado completa y enviada, hacer clic en enlace Nómina Judicial, hacer clic en boton trazabilidad pagaré, visualizar datos del pagaré, luego hacer clic en boton ver carta guía</t>
   </si>
 </sst>
 </file>
@@ -633,7 +663,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B25" sqref="B25"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,114 +696,114 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1009,72 +1039,72 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1280,19 +1310,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="132.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="97.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="79" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1317,53 +1347,73 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -1371,21 +1421,24 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="P10" t="s">
-        <v>6</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
+      <c r="P11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1398,13 +1451,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1427,13 +1477,13 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1454,8 +1504,11 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -1475,11 +1528,8 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -1511,8 +1561,11 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -1541,11 +1594,14 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1597,16 +1653,16 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
